--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1970001.807301308</v>
+        <v>-1972573.493916926</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.6720473691858</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>326.7594514077786</v>
@@ -1376,7 +1376,7 @@
         <v>316.169601257454</v>
       </c>
       <c r="E11" t="n">
-        <v>343.4169297090328</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>264.6979105187346</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.45111478108508</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.81790519125273</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>169.0820300698417</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.5489389111444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
         <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
-        <v>331.2176603152401</v>
+        <v>218.1944181073167</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,10 +1461,10 @@
         <v>106.5557720301549</v>
       </c>
       <c r="G12" t="n">
-        <v>96.93551735164898</v>
+        <v>96.93551735164897</v>
       </c>
       <c r="H12" t="n">
-        <v>55.42454814858048</v>
+        <v>55.42454814858046</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>97.97911993495511</v>
       </c>
       <c r="T12" t="n">
-        <v>154.0148842394095</v>
+        <v>154.0148842394094</v>
       </c>
       <c r="U12" t="n">
         <v>187.3032996487766</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.7333807353989</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833402</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.96244605429614</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5919900612543</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.17146931820167</v>
+        <v>69.17146931820164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3626336905235</v>
+        <v>67.36263369052348</v>
       </c>
       <c r="S13" t="n">
         <v>157.822810462059</v>
@@ -1591,10 +1591,10 @@
         <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0712129888659</v>
+        <v>27.492460803123</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>372.4082852902245</v>
       </c>
       <c r="H14" t="n">
-        <v>256.0943240240915</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.6743214249469</v>
+        <v>70.67432142494688</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>94.82148539479775</v>
       </c>
       <c r="V14" t="n">
-        <v>169.9448216859454</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>331.2176603152401</v>
       </c>
       <c r="Y14" t="n">
         <v>347.7244982928246</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,13 +1768,13 @@
         <v>128.7333807353989</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597023</v>
+        <v>73.11501227642188</v>
       </c>
       <c r="G16" t="n">
         <v>127.5123678957993</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.41871230681841</v>
       </c>
       <c r="S16" t="n">
         <v>151.255584968213</v>
@@ -1828,7 +1828,7 @@
         <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>93.72029929436252</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
         <v>180.0712129888659</v>
@@ -1850,7 +1850,7 @@
         <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441577</v>
       </c>
       <c r="F17" t="n">
         <v>309.1913255136064</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
         <v>153.310451730797</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H19" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333693</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480642</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U20" t="n">
         <v>153.310451730797</v>
@@ -2141,13 +2141,13 @@
         <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893089</v>
       </c>
       <c r="X20" t="n">
         <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333693</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480642</v>
@@ -2318,7 +2318,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
         <v>256.998321392578</v>
@@ -2333,7 +2333,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
         <v>153.310451730797</v>
@@ -2384,7 +2384,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092326</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
         <v>154.452923095723</v>
@@ -2539,7 +2539,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239898</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329979</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U26" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V26" t="n">
         <v>268.5809786052588</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C28" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333633</v>
+        <v>89.4441931533363</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169314</v>
+        <v>87.26268278169312</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805522</v>
+        <v>86.24976815805519</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944473</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517129</v>
       </c>
       <c r="S28" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T28" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U28" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V28" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W28" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X28" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329979</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V29" t="n">
         <v>268.5809786052588</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C31" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333633</v>
+        <v>89.4441931533363</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169314</v>
+        <v>87.26268278169312</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805522</v>
+        <v>86.24976815805519</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944473</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496206</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517129</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U31" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W31" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X31" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329978</v>
       </c>
       <c r="T32" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U32" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V32" t="n">
         <v>268.5809786052588</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657072</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C34" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333633</v>
+        <v>89.44419315333629</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169314</v>
+        <v>87.2626827816931</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805522</v>
+        <v>86.24976815805518</v>
       </c>
       <c r="G34" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944471</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496204</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517127</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U34" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V34" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W34" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X34" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.503041560071</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383246</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.562100870523</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010752</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846433</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482641</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092339</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621595</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333706</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1042.334381633575</v>
+        <v>998.6294276848746</v>
       </c>
       <c r="C11" t="n">
-        <v>712.2743297065256</v>
+        <v>668.5693757578255</v>
       </c>
       <c r="D11" t="n">
-        <v>392.9110961131378</v>
+        <v>349.2061421644376</v>
       </c>
       <c r="E11" t="n">
-        <v>46.02530852825604</v>
+        <v>349.2061421644376</v>
       </c>
       <c r="F11" t="n">
-        <v>46.02530852825604</v>
+        <v>349.2061421644376</v>
       </c>
       <c r="G11" t="n">
-        <v>46.02530852825604</v>
+        <v>349.2061421644376</v>
       </c>
       <c r="H11" t="n">
-        <v>46.02530852825604</v>
+        <v>81.83451537783691</v>
       </c>
       <c r="I11" t="n">
-        <v>46.02530852825604</v>
+        <v>46.025308528256</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3157454550892</v>
+        <v>164.3157454550874</v>
       </c>
       <c r="K11" t="n">
-        <v>392.3409650219255</v>
+        <v>392.3409650219237</v>
       </c>
       <c r="L11" t="n">
-        <v>712.1281751217095</v>
+        <v>712.1281751217075</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.622500200642</v>
+        <v>1099.62250020064</v>
       </c>
       <c r="N11" t="n">
-        <v>1498.000696951029</v>
+        <v>1498.000696951027</v>
       </c>
       <c r="O11" t="n">
-        <v>1860.842670219303</v>
+        <v>1860.8426702193</v>
       </c>
       <c r="P11" t="n">
-        <v>2136.018898899081</v>
+        <v>2136.018898899079</v>
       </c>
       <c r="Q11" t="n">
-        <v>2294.492040045691</v>
+        <v>2294.492040045689</v>
       </c>
       <c r="R11" t="n">
-        <v>2301.265426412802</v>
+        <v>2301.2654264128</v>
       </c>
       <c r="S11" t="n">
-        <v>2301.265426412802</v>
+        <v>2210.540269653959</v>
       </c>
       <c r="T11" t="n">
-        <v>2301.265426412802</v>
+        <v>2039.750340290482</v>
       </c>
       <c r="U11" t="n">
-        <v>2301.265426412802</v>
+        <v>1825.054442400437</v>
       </c>
       <c r="V11" t="n">
-        <v>2301.265426412802</v>
+        <v>1532.894020070229</v>
       </c>
       <c r="W11" t="n">
-        <v>1987.39923615605</v>
+        <v>1219.027829813478</v>
       </c>
       <c r="X11" t="n">
-        <v>1652.835942908333</v>
+        <v>998.6294276848746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1301.599075945884</v>
+        <v>998.6294276848746</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673.4739564565925</v>
+        <v>673.4739564565923</v>
       </c>
       <c r="C12" t="n">
-        <v>537.9233921888281</v>
+        <v>537.9233921888278</v>
       </c>
       <c r="D12" t="n">
-        <v>427.8914475409393</v>
+        <v>427.8914475409392</v>
       </c>
       <c r="E12" t="n">
-        <v>307.5564575488464</v>
+        <v>307.5564575488463</v>
       </c>
       <c r="F12" t="n">
-        <v>199.9243645890939</v>
+        <v>199.9243645890938</v>
       </c>
       <c r="G12" t="n">
-        <v>102.0097005975293</v>
+        <v>102.0097005975292</v>
       </c>
       <c r="H12" t="n">
-        <v>46.02530852825604</v>
+        <v>46.025308528256</v>
       </c>
       <c r="I12" t="n">
-        <v>50.20351422082519</v>
+        <v>46.025308528256</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8386411268329</v>
+        <v>135.7887413938604</v>
       </c>
       <c r="K12" t="n">
-        <v>268.2461220561345</v>
+        <v>302.196222323162</v>
       </c>
       <c r="L12" t="n">
-        <v>538.3240572793843</v>
+        <v>572.2741575464117</v>
       </c>
       <c r="M12" t="n">
-        <v>872.8491371039518</v>
+        <v>906.7992373709792</v>
       </c>
       <c r="N12" t="n">
-        <v>1239.719988665218</v>
+        <v>1302.715151523405</v>
       </c>
       <c r="O12" t="n">
-        <v>1582.934261439586</v>
+        <v>1607.801118338177</v>
       </c>
       <c r="P12" t="n">
         <v>1846.58788637871</v>
@@ -5148,7 +5148,7 @@
         <v>1896.944074651578</v>
       </c>
       <c r="T12" t="n">
-        <v>1741.373484510761</v>
+        <v>1741.37348451076</v>
       </c>
       <c r="U12" t="n">
         <v>1552.178232340279</v>
@@ -5157,13 +5157,13 @@
         <v>1355.928589121899</v>
       </c>
       <c r="W12" t="n">
-        <v>1140.59369740706</v>
+        <v>1140.593697407059</v>
       </c>
       <c r="X12" t="n">
-        <v>971.6446622148893</v>
+        <v>971.6446622148891</v>
       </c>
       <c r="Y12" t="n">
-        <v>802.786828463298</v>
+        <v>802.7868284632978</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.6298139545952</v>
+        <v>353.9166799558346</v>
       </c>
       <c r="C13" t="n">
-        <v>531.6298139545952</v>
+        <v>223.8829620412903</v>
       </c>
       <c r="D13" t="n">
-        <v>420.415639555622</v>
+        <v>223.8829620412903</v>
       </c>
       <c r="E13" t="n">
-        <v>311.4050109865915</v>
+        <v>223.8829620412903</v>
       </c>
       <c r="F13" t="n">
-        <v>226.5944594165954</v>
+        <v>115.8954795567425</v>
       </c>
       <c r="G13" t="n">
-        <v>226.5944594165954</v>
+        <v>115.8954795567425</v>
       </c>
       <c r="H13" t="n">
-        <v>115.8954795567426</v>
+        <v>115.8954795567425</v>
       </c>
       <c r="I13" t="n">
-        <v>46.02530852825604</v>
+        <v>46.025308528256</v>
       </c>
       <c r="J13" t="n">
         <v>102.9003577647389</v>
@@ -5206,25 +5206,25 @@
         <v>600.8952645594818</v>
       </c>
       <c r="M13" t="n">
-        <v>924.7005522174882</v>
+        <v>924.7005522174883</v>
       </c>
       <c r="N13" t="n">
-        <v>1247.14769619201</v>
+        <v>1247.147696192009</v>
       </c>
       <c r="O13" t="n">
         <v>1531.874171881338</v>
       </c>
       <c r="P13" t="n">
-        <v>1757.489130966078</v>
+        <v>1757.489130966077</v>
       </c>
       <c r="Q13" t="n">
         <v>1841.988397197345</v>
       </c>
       <c r="R13" t="n">
-        <v>1773.945332863483</v>
+        <v>1773.945332863482</v>
       </c>
       <c r="S13" t="n">
-        <v>1614.528352598777</v>
+        <v>1614.528352598776</v>
       </c>
       <c r="T13" t="n">
         <v>1430.037820481456</v>
@@ -5233,16 +5233,16 @@
         <v>1179.816656300885</v>
       </c>
       <c r="V13" t="n">
-        <v>964.0346331083609</v>
+        <v>964.034633108361</v>
       </c>
       <c r="W13" t="n">
-        <v>713.5199280847628</v>
+        <v>713.5199280847635</v>
       </c>
       <c r="X13" t="n">
-        <v>713.5199280847628</v>
+        <v>524.4328422001087</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.6298139545952</v>
+        <v>496.6626797727117</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2069.755749833259</v>
+        <v>1811.074614455388</v>
       </c>
       <c r="C14" t="n">
-        <v>1739.69569790621</v>
+        <v>1481.014562528339</v>
       </c>
       <c r="D14" t="n">
-        <v>1420.332464312822</v>
+        <v>1161.651328934951</v>
       </c>
       <c r="E14" t="n">
-        <v>1073.44667672794</v>
+        <v>814.7655413500694</v>
       </c>
       <c r="F14" t="n">
-        <v>701.3632369516951</v>
+        <v>442.6821015738244</v>
       </c>
       <c r="G14" t="n">
-        <v>325.1932518100537</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,16 +5276,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149628</v>
+        <v>3254.217618149629</v>
       </c>
       <c r="T14" t="n">
-        <v>3254.217618149628</v>
+        <v>3254.217618149629</v>
       </c>
       <c r="U14" t="n">
-        <v>3254.217618149628</v>
+        <v>3158.438339973065</v>
       </c>
       <c r="V14" t="n">
-        <v>3082.556182103219</v>
+        <v>3158.438339973065</v>
       </c>
       <c r="W14" t="n">
-        <v>2768.689991846467</v>
+        <v>2844.572149716314</v>
       </c>
       <c r="X14" t="n">
-        <v>2768.689991846467</v>
+        <v>2510.008856468597</v>
       </c>
       <c r="Y14" t="n">
-        <v>2417.453124884018</v>
+        <v>2158.771989506147</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.8732131799777</v>
+        <v>615.5251040504177</v>
       </c>
       <c r="C16" t="n">
-        <v>630.8394952654334</v>
+        <v>485.4913861358735</v>
       </c>
       <c r="D16" t="n">
-        <v>519.6253208664602</v>
+        <v>485.4913861358735</v>
       </c>
       <c r="E16" t="n">
-        <v>410.6146922974297</v>
+        <v>376.480757566843</v>
       </c>
       <c r="F16" t="n">
-        <v>302.6272098128819</v>
+        <v>302.6272098128815</v>
       </c>
       <c r="G16" t="n">
-        <v>173.8268382009631</v>
+        <v>173.826838200963</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5440,7 +5440,7 @@
         <v>391.8785437471886</v>
       </c>
       <c r="L16" t="n">
-        <v>746.5666481552813</v>
+        <v>746.5666481552814</v>
       </c>
       <c r="M16" t="n">
         <v>1128.851999714427</v>
@@ -5455,31 +5455,31 @@
         <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765266</v>
+        <v>2232.320995765265</v>
       </c>
       <c r="R16" t="n">
-        <v>2232.320995765266</v>
+        <v>2181.393003536156</v>
       </c>
       <c r="S16" t="n">
-        <v>2079.537576605454</v>
+        <v>2028.609584376345</v>
       </c>
       <c r="T16" t="n">
-        <v>1896.673426188343</v>
+        <v>1845.745433959233</v>
       </c>
       <c r="U16" t="n">
-        <v>1646.473024327349</v>
+        <v>1595.54503209824</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.691001134825</v>
+        <v>1379.763008905715</v>
       </c>
       <c r="W16" t="n">
-        <v>1180.176296111227</v>
+        <v>1129.248303882117</v>
       </c>
       <c r="X16" t="n">
-        <v>1085.509327127023</v>
+        <v>940.1612179974624</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.6192129968549</v>
+        <v>758.2711038672948</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495728</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="18">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F19" t="n">
         <v>183.0892706919198</v>
@@ -5668,34 +5668,34 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J19" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K19" t="n">
-        <v>371.3804471090252</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L19" t="n">
-        <v>623.7981640572063</v>
+        <v>505.9475671746762</v>
       </c>
       <c r="M19" t="n">
-        <v>887.938518382228</v>
+        <v>770.0879214996979</v>
       </c>
       <c r="N19" t="n">
-        <v>1155.955228437899</v>
+        <v>941.3967585295454</v>
       </c>
       <c r="O19" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S19" t="n">
         <v>1396.961089219653</v>
@@ -5704,19 +5704,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304662</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431752</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E20" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464964</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495728</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5780,7 +5780,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515854</v>
@@ -5789,7 +5789,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
         <v>2290.53823536262</v>
@@ -5820,7 +5820,7 @@
         <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064548</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404822</v>
@@ -5905,55 +5905,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>155.2189959588252</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>253.5298502264956</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L22" t="n">
-        <v>505.9475671746767</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M22" t="n">
-        <v>673.3800484738745</v>
+        <v>866.7957945255218</v>
       </c>
       <c r="N22" t="n">
-        <v>941.3967585295459</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O22" t="n">
-        <v>1176.02298077356</v>
+        <v>1369.438726825207</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.681856552142</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304665</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431753</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,31 +6084,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
         <v>1109.759191501176</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170923</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>371.3804471090253</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L25" t="n">
-        <v>623.7981640572065</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M25" t="n">
-        <v>791.2306453564042</v>
+        <v>886.6195415621439</v>
       </c>
       <c r="N25" t="n">
-        <v>1059.247355412076</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O25" t="n">
-        <v>1197.165704630265</v>
+        <v>1369.438726825207</v>
       </c>
       <c r="P25" t="n">
-        <v>1392.824580408848</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1646.478165174435</v>
       </c>
       <c r="D26" t="n">
-        <v>1347.981436128166</v>
+        <v>1347.981436128165</v>
       </c>
       <c r="E26" t="n">
         <v>1021.962153090402</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612753</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H26" t="n">
         <v>77.62710643600128</v>
@@ -6227,16 +6227,16 @@
         <v>342.5042110522845</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083569</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L26" t="n">
-        <v>1244.516932122993</v>
+        <v>1244.516932122994</v>
       </c>
       <c r="M26" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986154</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O26" t="n">
         <v>3003.538825931719</v>
@@ -6251,22 +6251,22 @@
         <v>3881.355321800064</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887639</v>
       </c>
       <c r="T26" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832342</v>
       </c>
       <c r="U26" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666659</v>
       </c>
       <c r="V26" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883569</v>
       </c>
       <c r="W26" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173936</v>
       </c>
       <c r="X26" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473337</v>
       </c>
       <c r="Y26" t="n">
         <v>2282.502583058007</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037986</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425473</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370918</v>
       </c>
       <c r="F27" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639768</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965949</v>
       </c>
       <c r="H27" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446242</v>
       </c>
       <c r="I27" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266185</v>
       </c>
       <c r="K27" t="n">
-        <v>409.5685749069658</v>
+        <v>409.5685749069656</v>
       </c>
       <c r="L27" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M27" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.066103996402</v>
+        <v>1697.066103996401</v>
       </c>
       <c r="O27" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P27" t="n">
-        <v>2418.526974890559</v>
+        <v>2418.526974890558</v>
       </c>
       <c r="Q27" t="n">
-        <v>2576.168532537159</v>
+        <v>2576.168532537158</v>
       </c>
       <c r="R27" t="n">
-        <v>2576.024179129674</v>
+        <v>2576.024179129673</v>
       </c>
       <c r="S27" t="n">
-        <v>2446.586292623154</v>
+        <v>2446.586292623153</v>
       </c>
       <c r="T27" t="n">
-        <v>2253.94329230101</v>
+        <v>2253.943292301009</v>
       </c>
       <c r="U27" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V27" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W27" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X27" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222592</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548332</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436366</v>
       </c>
       <c r="G28" t="n">
         <v>201.6320312788365</v>
@@ -6385,25 +6385,25 @@
         <v>181.3293059491641</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5392421300566</v>
+        <v>338.2197272830617</v>
       </c>
       <c r="L28" t="n">
-        <v>723.67860764478</v>
+        <v>713.3590927977851</v>
       </c>
       <c r="M28" t="n">
-        <v>1126.415220310556</v>
+        <v>1116.095705463561</v>
       </c>
       <c r="N28" t="n">
-        <v>1526.403164082648</v>
+        <v>1489.468387309997</v>
       </c>
       <c r="O28" t="n">
-        <v>1884.312330069289</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P28" t="n">
-        <v>2041.842899888275</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q28" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R28" t="n">
         <v>2083.281746631051</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750674</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920181</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612758</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H29" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703186</v>
+        <v>95.04551302703184</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522847</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083584</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L29" t="n">
-        <v>1244.516932122995</v>
+        <v>1244.516932122994</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861147</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N29" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P29" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355124</v>
       </c>
       <c r="Q29" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R29" t="n">
         <v>3881.355321800064</v>
@@ -6494,13 +6494,13 @@
         <v>3684.624844832343</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173938</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
         <v>2612.872945473338</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037986</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425473</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370918</v>
       </c>
       <c r="F30" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639768</v>
       </c>
       <c r="G30" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965949</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446242</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266185</v>
       </c>
       <c r="K30" t="n">
-        <v>409.5685749069658</v>
+        <v>409.5685749069656</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.066103996402</v>
+        <v>1697.066103996401</v>
       </c>
       <c r="O30" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P30" t="n">
-        <v>2418.526974890559</v>
+        <v>2418.526974890558</v>
       </c>
       <c r="Q30" t="n">
-        <v>2576.168532537159</v>
+        <v>2576.168532537158</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.024179129674</v>
+        <v>2576.024179129673</v>
       </c>
       <c r="S30" t="n">
-        <v>2446.586292623154</v>
+        <v>2446.586292623153</v>
       </c>
       <c r="T30" t="n">
-        <v>2253.94329230101</v>
+        <v>2253.943292301009</v>
       </c>
       <c r="U30" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V30" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W30" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X30" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y30" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222592</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548332</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436366</v>
       </c>
       <c r="G31" t="n">
         <v>201.6320312788365</v>
@@ -6622,25 +6622,25 @@
         <v>148.029427039668</v>
       </c>
       <c r="K31" t="n">
-        <v>304.9198483735656</v>
+        <v>410.5961770547716</v>
       </c>
       <c r="L31" t="n">
-        <v>680.059213888289</v>
+        <v>686.7438308721285</v>
       </c>
       <c r="M31" t="n">
-        <v>992.7587226296555</v>
+        <v>1089.480443537905</v>
       </c>
       <c r="N31" t="n">
-        <v>1392.746666401747</v>
+        <v>1489.468387309997</v>
       </c>
       <c r="O31" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P31" t="n">
-        <v>2041.842899888275</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R31" t="n">
         <v>2083.281746631051</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750674</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920181</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C32" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D32" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E32" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H32" t="n">
         <v>77.62710643600128</v>
@@ -6707,16 +6707,16 @@
         <v>1244.516932122994</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986154</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.538825931719</v>
+        <v>3003.53882593172</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355124</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
         <v>3763.758688177034</v>
@@ -6728,7 +6728,7 @@
         <v>3830.83362288764</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832342</v>
       </c>
       <c r="U32" t="n">
         <v>3490.86333766666</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037986</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425473</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370918</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639768</v>
       </c>
       <c r="G33" t="n">
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266185</v>
       </c>
       <c r="K33" t="n">
-        <v>409.5685749069658</v>
+        <v>409.5685749069656</v>
       </c>
       <c r="L33" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M33" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.066103996402</v>
+        <v>1697.066103996401</v>
       </c>
       <c r="O33" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P33" t="n">
-        <v>2418.526974890559</v>
+        <v>2418.526974890558</v>
       </c>
       <c r="Q33" t="n">
-        <v>2576.168532537159</v>
+        <v>2576.168532537158</v>
       </c>
       <c r="R33" t="n">
-        <v>2576.024179129674</v>
+        <v>2576.024179129673</v>
       </c>
       <c r="S33" t="n">
-        <v>2446.586292623154</v>
+        <v>2446.586292623153</v>
       </c>
       <c r="T33" t="n">
-        <v>2253.94329230101</v>
+        <v>2253.943292301009</v>
       </c>
       <c r="U33" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V33" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W33" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X33" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222591</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548331</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810662</v>
+        <v>396.686876281066</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436365</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788365</v>
+        <v>201.6320312788364</v>
       </c>
       <c r="H34" t="n">
         <v>115.1838140571751</v>
@@ -6856,28 +6856,28 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J34" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K34" t="n">
-        <v>375.7326989752947</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L34" t="n">
-        <v>590.0221099638793</v>
+        <v>819.0354214789911</v>
       </c>
       <c r="M34" t="n">
-        <v>992.7587226296555</v>
+        <v>1045.047469844416</v>
       </c>
       <c r="N34" t="n">
-        <v>1392.746666401747</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O34" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P34" t="n">
-        <v>2041.842899888275</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q34" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R34" t="n">
         <v>2083.281746631051</v>
@@ -6889,19 +6889,19 @@
         <v>1789.367186148365</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.03328883449</v>
+        <v>1560.033288834489</v>
       </c>
       <c r="V34" t="n">
-        <v>1365.117770189084</v>
+        <v>1365.117770189083</v>
       </c>
       <c r="W34" t="n">
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750671</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920179</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464984</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7081,37 +7081,37 @@
         <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970705</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090253</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572065</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M37" t="n">
-        <v>887.9385183822282</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N37" t="n">
-        <v>1155.9552284379</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O37" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P37" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936507</v>
@@ -7120,7 +7120,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363023</v>
@@ -7129,13 +7129,13 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y37" t="n">
         <v>485.2364260734886</v>
@@ -7151,40 +7151,40 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7196,10 +7196,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
@@ -7211,13 +7211,13 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170932</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630295</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245371</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159872</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226752</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970698</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832011</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313822</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M40" t="n">
-        <v>694.52277233058</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862513</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.022980773562</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552144</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936509</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304679</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673505</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431765</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734896</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307335</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7427,31 +7427,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7558,28 +7558,28 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970707</v>
+        <v>155.2189959588259</v>
       </c>
       <c r="K43" t="n">
-        <v>177.9647010573775</v>
+        <v>350.2377232523202</v>
       </c>
       <c r="L43" t="n">
-        <v>430.3824180055586</v>
+        <v>505.9475671746774</v>
       </c>
       <c r="M43" t="n">
-        <v>673.3800484738749</v>
+        <v>673.3800484738751</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295463</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O43" t="n">
         <v>1176.02298077356</v>
@@ -7631,67 +7631,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J46" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090253</v>
+        <v>350.2377232523187</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572065</v>
+        <v>602.6554402004999</v>
       </c>
       <c r="M46" t="n">
-        <v>887.9385183822282</v>
+        <v>770.0879214996977</v>
       </c>
       <c r="N46" t="n">
-        <v>1155.9552284379</v>
+        <v>941.3967585295452</v>
       </c>
       <c r="O46" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>10.42375237070183</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10042,16 +10042,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>144.933613889253</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>62.48307356441654</v>
       </c>
       <c r="M31" t="n">
-        <v>87.56309128882967</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>71.52813192093848</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>53.65784208816376</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54273168673647</v>
+        <v>14.54273168673645</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.54835393106585</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F11" t="n">
         <v>368.3626053784825</v>
@@ -23273,10 +23273,10 @@
         <v>373.248376733617</v>
       </c>
       <c r="H11" t="n">
-        <v>264.6979105187346</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.4511147810851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.81790519125275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>169.0820300698417</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.5489389111444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.238818106906</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>113.0232422079234</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187084</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353989</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F13" t="n">
-        <v>22.94516160540617</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>127.8892039961243</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>109.5919900612543</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258082</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>152.5787521857428</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>256.0943240240915</v>
       </c>
       <c r="I14" t="n">
-        <v>3.06348940969702</v>
+        <v>3.063489409697041</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>165.4045297763912</v>
       </c>
       <c r="U14" t="n">
-        <v>212.481731595673</v>
+        <v>117.6602462008753</v>
       </c>
       <c r="V14" t="n">
-        <v>119.2939964209605</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152401</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>33.79259538328041</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660916</v>
+        <v>57.83898004660917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.4187123068184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>93.4759157314457</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-8.538708137538961e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143373.3592754817</v>
+        <v>143373.3592754818</v>
       </c>
       <c r="C2" t="n">
-        <v>143373.3592754817</v>
+        <v>143373.3592754818</v>
       </c>
       <c r="D2" t="n">
         <v>143383.9461566714</v>
@@ -26329,7 +26329,7 @@
         <v>143682.3097262498</v>
       </c>
       <c r="H2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="I2" t="n">
         <v>143682.3097262497</v>
@@ -26341,19 +26341,19 @@
         <v>143682.3097262498</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262499</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161906.3083411329</v>
+        <v>161906.3083411364</v>
       </c>
       <c r="E3" t="n">
-        <v>758343.5965725863</v>
+        <v>758343.5965725831</v>
       </c>
       <c r="F3" t="n">
-        <v>238556.5016603829</v>
+        <v>238556.5016603828</v>
       </c>
       <c r="G3" t="n">
         <v>47337.02389190084</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698646</v>
+        <v>36352.13055698652</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190084</v>
+        <v>47337.02389190086</v>
       </c>
       <c r="M3" t="n">
-        <v>139558.1400101343</v>
+        <v>139558.1400101341</v>
       </c>
       <c r="N3" t="n">
-        <v>62722.1549935652</v>
+        <v>62722.1549935654</v>
       </c>
       <c r="O3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401722.449860215</v>
+        <v>401722.4498602136</v>
       </c>
       <c r="E4" t="n">
-        <v>71940.62760287937</v>
+        <v>71940.62760287939</v>
       </c>
       <c r="F4" t="n">
-        <v>54179.49125338272</v>
+        <v>54179.49125338277</v>
       </c>
       <c r="G4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="J4" t="n">
+        <v>95033.13778715182</v>
+      </c>
+      <c r="K4" t="n">
+        <v>95033.13778715182</v>
+      </c>
+      <c r="L4" t="n">
+        <v>95033.13778715186</v>
+      </c>
+      <c r="M4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="H4" t="n">
-        <v>93774.13782657703</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>93774.137826577</v>
-      </c>
-      <c r="J4" t="n">
-        <v>95033.13778715173</v>
-      </c>
-      <c r="K4" t="n">
-        <v>95033.13778715179</v>
-      </c>
-      <c r="L4" t="n">
-        <v>95033.13778715175</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657692</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37748.9216059484</v>
+        <v>37748.92160594849</v>
       </c>
       <c r="E5" t="n">
-        <v>57418.54709764828</v>
+        <v>57418.54709764826</v>
       </c>
       <c r="F5" t="n">
         <v>77544.12697928959</v>
@@ -26488,7 +26488,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
         <v>87728.20329125514</v>
@@ -26500,16 +26500,16 @@
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="C6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="D6" t="n">
-        <v>-457993.7336506249</v>
+        <v>-457997.9959873353</v>
       </c>
       <c r="E6" t="n">
-        <v>-772902.0530787825</v>
+        <v>-773314.6472435209</v>
       </c>
       <c r="F6" t="n">
-        <v>-239027.3487274872</v>
+        <v>-239204.9135640684</v>
       </c>
       <c r="G6" t="n">
-        <v>-79947.44929847795</v>
+        <v>-79947.44929847792</v>
       </c>
       <c r="H6" t="n">
-        <v>-32610.42540657714</v>
+        <v>-32610.4254065774</v>
       </c>
       <c r="I6" t="n">
-        <v>-32610.42540657712</v>
+        <v>-32610.42540657717</v>
       </c>
       <c r="J6" t="n">
-        <v>-75431.16190914347</v>
+        <v>-75431.16190914356</v>
       </c>
       <c r="K6" t="n">
-        <v>-39079.03135215709</v>
+        <v>-39079.03135215712</v>
       </c>
       <c r="L6" t="n">
-        <v>-86416.05524405786</v>
+        <v>-86416.05524405805</v>
       </c>
       <c r="M6" t="n">
-        <v>-172168.5654167114</v>
+        <v>-172168.5654167113</v>
       </c>
       <c r="N6" t="n">
-        <v>-95332.58040014227</v>
+        <v>-95332.58040014253</v>
       </c>
       <c r="O6" t="n">
-        <v>-32610.42540657724</v>
+        <v>-32610.4254065773</v>
       </c>
       <c r="P6" t="n">
-        <v>-32610.42540657712</v>
+        <v>-32610.42540657743</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="G2" t="n">
+        <v>97.68472022810501</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97.68472022810501</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97.68472022810502</v>
+      </c>
+      <c r="J2" t="n">
+        <v>59.17127986487606</v>
+      </c>
+      <c r="K2" t="n">
+        <v>59.17127986487606</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.17127986487607</v>
+      </c>
+      <c r="M2" t="n">
         <v>97.68472022810498</v>
       </c>
-      <c r="H2" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59.17127986487603</v>
-      </c>
-      <c r="K2" t="n">
-        <v>59.17127986487603</v>
-      </c>
-      <c r="L2" t="n">
-        <v>59.17127986487603</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810496</v>
-      </c>
       <c r="N2" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.051449814147</v>
+        <v>189.0514498141511</v>
       </c>
       <c r="E3" t="n">
         <v>880.8039540494221</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.3163566032005</v>
+        <v>575.3163566032</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26805,10 +26805,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>970.338830450016</v>
@@ -26820,16 +26820,16 @@
         <v>970.338830450016</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322891</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.051449814147</v>
+        <v>189.0514498141511</v>
       </c>
       <c r="E3" t="n">
-        <v>691.7525042352752</v>
+        <v>691.7525042352711</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9727465438762</v>
+        <v>208.9727465438759</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.3163566032005</v>
+        <v>575.3163566032</v>
       </c>
       <c r="F4" t="n">
-        <v>256.0850987990922</v>
+        <v>256.0850987990926</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477231</v>
+        <v>138.9373750477233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>436.3789815554774</v>
+        <v>436.3789815554767</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990924</v>
+        <v>256.0850987990929</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.3163566032005</v>
+        <v>575.3163566032</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990922</v>
+        <v>256.0850987990926</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>331.6913924256802</v>
+        <v>331.69139242568</v>
       </c>
       <c r="I8" t="n">
-        <v>181.1757648710696</v>
+        <v>181.175764871069</v>
       </c>
       <c r="J8" t="n">
-        <v>116.5413598486422</v>
+        <v>116.5413598486408</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4142596508245</v>
+        <v>123.4142596508225</v>
       </c>
       <c r="L8" t="n">
-        <v>115.8317952049782</v>
+        <v>115.8317952049756</v>
       </c>
       <c r="M8" t="n">
-        <v>96.89585981148039</v>
+        <v>96.89585981147755</v>
       </c>
       <c r="N8" t="n">
-        <v>93.80332362086111</v>
+        <v>93.80332362085818</v>
       </c>
       <c r="O8" t="n">
-        <v>102.0457794020953</v>
+        <v>102.0457794020926</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9432076242681</v>
+        <v>121.9432076242658</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2336104729722</v>
+        <v>140.2336104729705</v>
       </c>
       <c r="R8" t="n">
-        <v>167.8448216959898</v>
+        <v>167.8448216959887</v>
       </c>
       <c r="S8" t="n">
-        <v>191.7014367716127</v>
+        <v>191.7014367716123</v>
       </c>
       <c r="T8" t="n">
-        <v>219.7689240503166</v>
+        <v>219.7689240503165</v>
       </c>
       <c r="U8" t="n">
         <v>251.2848524415646</v>
@@ -27947,40 +27947,40 @@
         <v>136.9368781956859</v>
       </c>
       <c r="H9" t="n">
-        <v>108.3081678922441</v>
+        <v>108.308167892244</v>
       </c>
       <c r="I9" t="n">
-        <v>85.52187168829194</v>
+        <v>85.52187168829164</v>
       </c>
       <c r="J9" t="n">
-        <v>88.41916175679366</v>
+        <v>88.41916175679283</v>
       </c>
       <c r="K9" t="n">
-        <v>72.17816324032643</v>
+        <v>72.17816324032502</v>
       </c>
       <c r="L9" t="n">
-        <v>50.26200220393693</v>
+        <v>50.26200220393503</v>
       </c>
       <c r="M9" t="n">
-        <v>39.1009937733082</v>
+        <v>39.10099377330599</v>
       </c>
       <c r="N9" t="n">
-        <v>25.58169394626628</v>
+        <v>25.58169394626401</v>
       </c>
       <c r="O9" t="n">
-        <v>45.84648974568941</v>
+        <v>45.84648974568732</v>
       </c>
       <c r="P9" t="n">
-        <v>56.32419965953464</v>
+        <v>56.32419965953297</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.07466658233344</v>
+        <v>88.07466658233233</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4322178925577</v>
+        <v>120.4322178925571</v>
       </c>
       <c r="S9" t="n">
-        <v>164.1300306324896</v>
+        <v>164.1300306324894</v>
       </c>
       <c r="T9" t="n">
         <v>198.5256882950178</v>
@@ -28026,43 +28026,43 @@
         <v>167.6500669079742</v>
       </c>
       <c r="H10" t="n">
-        <v>159.1961509022226</v>
+        <v>159.1961509022225</v>
       </c>
       <c r="I10" t="n">
-        <v>145.1983077799599</v>
+        <v>145.1983077799597</v>
       </c>
       <c r="J10" t="n">
-        <v>102.89291119014</v>
+        <v>102.8929111901395</v>
       </c>
       <c r="K10" t="n">
-        <v>89.40542983242393</v>
+        <v>89.40542983242308</v>
       </c>
       <c r="L10" t="n">
-        <v>84.20029250647499</v>
+        <v>84.20029250647391</v>
       </c>
       <c r="M10" t="n">
-        <v>85.48620773210774</v>
+        <v>85.48620773210659</v>
       </c>
       <c r="N10" t="n">
-        <v>75.51664192881452</v>
+        <v>75.51664192881341</v>
       </c>
       <c r="O10" t="n">
-        <v>90.27011317790249</v>
+        <v>90.27011317790145</v>
       </c>
       <c r="P10" t="n">
-        <v>96.49619276509171</v>
+        <v>96.49619276509083</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.9582327075096</v>
+        <v>122.958232707509</v>
       </c>
       <c r="R10" t="n">
-        <v>161.964727921747</v>
+        <v>161.9647279217467</v>
       </c>
       <c r="S10" t="n">
-        <v>218.0754237862555</v>
+        <v>218.0754237862554</v>
       </c>
       <c r="T10" t="n">
-        <v>226.488963503484</v>
+        <v>226.4889635034839</v>
       </c>
       <c r="U10" t="n">
         <v>286.300434131919</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
     </row>
     <row r="12">
@@ -28166,31 +28166,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="G12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="I12" t="n">
-        <v>38.51344036322893</v>
+        <v>34.29303057275504</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28202,40 +28202,40 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9.174993301451195</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="O12" t="n">
-        <v>38.51344036322893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.51344036322893</v>
+        <v>13.39540309192466</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="R12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322895</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810498</v>
+        <v>76.32843350415925</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P19" t="n">
-        <v>76.32843350415962</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="21">
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810496</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
-        <v>76.3284335041598</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>77.66073332242613</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I24" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810496</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810496</v>
+        <v>77.6607333224259</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.32843350415972</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487469</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487583</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487492</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487569</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487607</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>76.32843350415959</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.32843350415972</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810484</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810484</v>
+        <v>77.66073332242686</v>
       </c>
       <c r="O40" t="n">
-        <v>76.32843350416218</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30639,16 +30639,16 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>76.32843350416051</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.32843350416007</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>97.68472022810495</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810496</v>
+        <v>76.32843350415897</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.32843350415972</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7600058283985804</v>
+        <v>0.7600058283985968</v>
       </c>
       <c r="H8" t="n">
-        <v>7.783409690086963</v>
+        <v>7.783409690087131</v>
       </c>
       <c r="I8" t="n">
-        <v>29.3001246993363</v>
+        <v>29.30012469933693</v>
       </c>
       <c r="J8" t="n">
-        <v>64.50454467804407</v>
+        <v>64.50454467804546</v>
       </c>
       <c r="K8" t="n">
-        <v>96.675591394156</v>
+        <v>96.67559139415808</v>
       </c>
       <c r="L8" t="n">
-        <v>119.9346197650091</v>
+        <v>119.9346197650117</v>
       </c>
       <c r="M8" t="n">
-        <v>133.4503734157923</v>
+        <v>133.4503734157952</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6097399757298</v>
+        <v>135.6097399757327</v>
       </c>
       <c r="O8" t="n">
-        <v>128.0524320195914</v>
+        <v>128.0524320195942</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2897881310014</v>
+        <v>109.2897881310038</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.07207940147725</v>
+        <v>82.07207940147902</v>
       </c>
       <c r="R8" t="n">
-        <v>47.74071611814237</v>
+        <v>47.7407161181434</v>
       </c>
       <c r="S8" t="n">
-        <v>17.31863281463267</v>
+        <v>17.31863281463304</v>
       </c>
       <c r="T8" t="n">
-        <v>3.326925513814787</v>
+        <v>3.326925513814859</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06080046627188642</v>
+        <v>0.06080046627188773</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4066389675247691</v>
+        <v>0.4066389675247778</v>
       </c>
       <c r="H9" t="n">
-        <v>3.927276344252375</v>
+        <v>3.92727634425246</v>
       </c>
       <c r="I9" t="n">
-        <v>14.00050831170806</v>
+        <v>14.00050831170836</v>
       </c>
       <c r="J9" t="n">
-        <v>38.41846490987304</v>
+        <v>38.41846490987386</v>
       </c>
       <c r="K9" t="n">
-        <v>65.66327573403257</v>
+        <v>65.66327573403397</v>
       </c>
       <c r="L9" t="n">
-        <v>88.29237757593725</v>
+        <v>88.29237757593916</v>
       </c>
       <c r="M9" t="n">
-        <v>103.0330401487101</v>
+        <v>103.0330401487123</v>
       </c>
       <c r="N9" t="n">
-        <v>105.760018137067</v>
+        <v>105.7600181370693</v>
       </c>
       <c r="O9" t="n">
-        <v>96.74975469875503</v>
+        <v>96.74975469875712</v>
       </c>
       <c r="P9" t="n">
-        <v>77.6502077547956</v>
+        <v>77.65020775479728</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.90710750368807</v>
+        <v>51.90710750368919</v>
       </c>
       <c r="R9" t="n">
-        <v>25.24728607140629</v>
+        <v>25.24728607140683</v>
       </c>
       <c r="S9" t="n">
-        <v>7.553140471348228</v>
+        <v>7.55314047134839</v>
       </c>
       <c r="T9" t="n">
-        <v>1.639040399803783</v>
+        <v>1.639040399803819</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02675256365294534</v>
+        <v>0.02675256365294592</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3409124504845274</v>
+        <v>0.3409124504845347</v>
       </c>
       <c r="H10" t="n">
-        <v>3.031021605216982</v>
+        <v>3.031021605217047</v>
       </c>
       <c r="I10" t="n">
-        <v>10.25216714729834</v>
+        <v>10.25216714729856</v>
       </c>
       <c r="J10" t="n">
-        <v>24.10251024925608</v>
+        <v>24.1025102492566</v>
       </c>
       <c r="K10" t="n">
-        <v>39.60782833811145</v>
+        <v>39.6078283381123</v>
       </c>
       <c r="L10" t="n">
-        <v>50.68438377476329</v>
+        <v>50.68438377476438</v>
       </c>
       <c r="M10" t="n">
-        <v>53.43957621549732</v>
+        <v>53.43957621549846</v>
       </c>
       <c r="N10" t="n">
-        <v>52.16890253641866</v>
+        <v>52.16890253641979</v>
       </c>
       <c r="O10" t="n">
-        <v>48.18642527394031</v>
+        <v>48.18642527394134</v>
       </c>
       <c r="P10" t="n">
-        <v>41.23181128405592</v>
+        <v>41.2318112840568</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.5467689219362</v>
+        <v>28.54676892193681</v>
       </c>
       <c r="R10" t="n">
-        <v>15.32866345542247</v>
+        <v>15.3286634554228</v>
       </c>
       <c r="S10" t="n">
-        <v>5.941174250716716</v>
+        <v>5.941174250716844</v>
       </c>
       <c r="T10" t="n">
-        <v>1.456625924797526</v>
+        <v>1.456625924797557</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01859522457188333</v>
+        <v>0.01859522457188373</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32485,7 +32485,7 @@
         <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P20" t="n">
         <v>629.9949819746412</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.220409790473887</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.15669384445223</v>
+        <v>90.67013420768119</v>
       </c>
       <c r="K12" t="n">
         <v>168.0883645750521</v>
@@ -35498,19 +35498,19 @@
         <v>337.9041210349167</v>
       </c>
       <c r="N12" t="n">
-        <v>370.5766177386527</v>
+        <v>399.9150648004305</v>
       </c>
       <c r="O12" t="n">
-        <v>346.6810836104732</v>
+        <v>308.1676432472443</v>
       </c>
       <c r="P12" t="n">
-        <v>266.316792867802</v>
+        <v>241.1987555964977</v>
       </c>
       <c r="Q12" t="n">
         <v>140.3705179626261</v>
       </c>
       <c r="R12" t="n">
-        <v>10.46281162118598</v>
+        <v>10.46281162118599</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.44954468331607</v>
+        <v>57.44954468331609</v>
       </c>
       <c r="K13" t="n">
         <v>200.7795966152414</v>
@@ -35586,7 +35586,7 @@
         <v>227.893898065393</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.35279417299728</v>
+        <v>85.35279417299731</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629516</v>
+        <v>84.09185697629515</v>
       </c>
       <c r="K16" t="n">
         <v>244.5610999075485</v>
@@ -35811,7 +35811,7 @@
         <v>358.270812533427</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567128</v>
+        <v>386.1468197567127</v>
       </c>
       <c r="N16" t="n">
         <v>383.370386530769</v>
@@ -35820,7 +35820,7 @@
         <v>340.8665705858687</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083394</v>
+        <v>273.4705115083393</v>
       </c>
       <c r="Q16" t="n">
         <v>116.9076789011226</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>233.6111041328029</v>
       </c>
       <c r="M19" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>176.2789413352289</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>88.27060879450266</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>246.7844518064643</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>109.6268955184479</v>
@@ -36522,22 +36522,22 @@
         <v>254.9673908567487</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511833</v>
+        <v>250.6999626455041</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.37971366430192</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202752</v>
+        <v>396.3625664202764</v>
       </c>
       <c r="L26" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572079</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951028</v>
+        <v>598.0923956951026</v>
       </c>
       <c r="N26" t="n">
         <v>611.4731152777874</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530948</v>
       </c>
       <c r="P26" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q26" t="n">
         <v>309.9655846685955</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>104.7496964779423</v>
       </c>
       <c r="K28" t="n">
-        <v>168.8989254352449</v>
+        <v>158.475173064543</v>
       </c>
       <c r="L28" t="n">
         <v>378.9286520350742</v>
@@ -36762,16 +36762,16 @@
         <v>406.8046592583598</v>
       </c>
       <c r="N28" t="n">
-        <v>404.0282260324161</v>
+        <v>377.1441230772073</v>
       </c>
       <c r="O28" t="n">
-        <v>361.5244100875158</v>
+        <v>198.4827437216333</v>
       </c>
       <c r="P28" t="n">
-        <v>159.1217876959454</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.22256002501823</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>249.9582808335886</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202764</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572079</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951028</v>
+        <v>598.0923956951026</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777875</v>
+        <v>611.4731152777873</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530951</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.11345515521893</v>
+        <v>71.11345515521892</v>
       </c>
       <c r="K31" t="n">
-        <v>158.4751730645431</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
-        <v>378.9286520350742</v>
+        <v>278.9370240579362</v>
       </c>
       <c r="M31" t="n">
-        <v>315.8580896377439</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O31" t="n">
-        <v>361.5244100875158</v>
+        <v>198.4827437216333</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1283510099865</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.22256002501823</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>249.9582808335886</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202764</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572079</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951017</v>
+        <v>598.0923956951026</v>
       </c>
       <c r="N32" t="n">
         <v>611.4731152777874</v>
@@ -37084,10 +37084,10 @@
         <v>567.2242807530952</v>
       </c>
       <c r="P32" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q32" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685951</v>
       </c>
       <c r="R32" t="n">
         <v>118.7844784071008</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.11345515521893</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K34" t="n">
-        <v>230.0033049854815</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L34" t="n">
-        <v>216.4539504935197</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M34" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N34" t="n">
-        <v>404.0282260324161</v>
+        <v>285.8683512761181</v>
       </c>
       <c r="O34" t="n">
         <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099865</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501823</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>1.332299818266868</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609168</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.37971366430192</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
         <v>8.752567558057635</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33229981826674</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567485</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511831</v>
+        <v>250.6999626455052</v>
       </c>
       <c r="O40" t="n">
-        <v>215.6398973609195</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.736000388247</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057507</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266854</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>88.27060879450337</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>245.4521519881983</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>175.632326703826</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.37971366430192</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
